--- a/Coder Army Sheet (1).xlsx
+++ b/Coder Army Sheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Coder Army\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834BB857-0689-40B0-B5BB-DF7498597D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9422D-8302-4ED4-A0A7-46461DF0C134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2979,8 +2979,8 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4492,7 +4492,7 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4509,7 +4509,7 @@
         <v>29</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4526,7 +4526,7 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4543,7 +4543,7 @@
         <v>29</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4560,7 +4560,7 @@
         <v>30</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4594,7 +4594,7 @@
         <v>30</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4611,7 +4611,7 @@
         <v>30</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4645,7 +4645,7 @@
         <v>31</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4696,7 +4696,7 @@
         <v>32</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">

--- a/Coder Army Sheet (1).xlsx
+++ b/Coder Army Sheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Coder Army\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9422D-8302-4ED4-A0A7-46461DF0C134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E66A8-D372-4C99-86D1-40E51EAF7D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2980,7 +2980,7 @@
   <dimension ref="A1:E746"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Coder Army Sheet (1).xlsx
+++ b/Coder Army Sheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Coder Army\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E66A8-D372-4C99-86D1-40E51EAF7D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E46AF-70CE-4F61-A831-A8BADB25D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2536,7 +2536,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2553,6 +2553,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
         <bgColor rgb="FFFAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2577,7 +2583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2634,6 +2640,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2979,8 +2988,8 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A725" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4491,7 +4500,7 @@
       <c r="D91" s="7">
         <v>29</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="36" t="s">
         <v>751</v>
       </c>
     </row>
@@ -4508,7 +4517,7 @@
       <c r="D92" s="7">
         <v>29</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="36" t="s">
         <v>751</v>
       </c>
     </row>
@@ -4525,7 +4534,7 @@
       <c r="D93" s="7">
         <v>29</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="36" t="s">
         <v>751</v>
       </c>
     </row>
@@ -4543,7 +4552,7 @@
         <v>29</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>751</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4559,7 +4568,7 @@
       <c r="D95" s="7">
         <v>30</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="36" t="s">
         <v>751</v>
       </c>
     </row>
@@ -4576,8 +4585,8 @@
       <c r="D96" s="7">
         <v>30</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>11</v>
+      <c r="E96" s="36" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4593,7 +4602,7 @@
       <c r="D97" s="7">
         <v>30</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="36" t="s">
         <v>751</v>
       </c>
     </row>
@@ -4611,7 +4620,7 @@
         <v>30</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>751</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4644,7 +4653,7 @@
       <c r="D100" s="7">
         <v>31</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="36" t="s">
         <v>751</v>
       </c>
     </row>
@@ -4696,7 +4705,7 @@
         <v>32</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>751</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -4933,8 +4942,8 @@
       <c r="D117" s="7">
         <v>35</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>11</v>
+      <c r="E117" s="36" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">

--- a/Coder Army Sheet (1).xlsx
+++ b/Coder Army Sheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Coder Army\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E46AF-70CE-4F61-A831-A8BADB25D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C18A38-F982-423B-BB63-107813CDF8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2988,8 +2988,8 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A725" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3058,7 +3058,7 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="36" t="s">
         <v>751</v>
       </c>
     </row>
@@ -4993,8 +4993,8 @@
       <c r="D120" s="7">
         <v>36</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>11</v>
+      <c r="E120" s="36" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">

--- a/Coder Army Sheet (1).xlsx
+++ b/Coder Army Sheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Coder Army\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C18A38-F982-423B-BB63-107813CDF8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ECE8E0-3DF8-4C08-A297-F5506C480C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="753">
   <si>
     <t>Hard work Beats Talent When Talent Doesn't work Hard</t>
   </si>
@@ -2293,6 +2293,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE </t>
   </si>
 </sst>
 </file>
@@ -2986,10 +2989,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E746"/>
+  <dimension ref="A1:F746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3001,7 +3004,7 @@
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3010,7 +3013,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3019,7 +3022,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3028,7 +3031,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -3061,8 +3064,11 @@
       <c r="E5" s="36" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -3075,11 +3081,14 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="36" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3092,11 +3101,14 @@
       <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="36" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -3109,11 +3121,14 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F8" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -3126,11 +3141,14 @@
       <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3143,11 +3161,14 @@
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -3160,11 +3181,14 @@
       <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3177,11 +3201,14 @@
       <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -3194,11 +3221,14 @@
       <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -3211,11 +3241,14 @@
       <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F14" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -3228,11 +3261,14 @@
       <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F15" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -3245,11 +3281,14 @@
       <c r="D16" s="7">
         <v>3</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F16" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -3262,11 +3301,14 @@
       <c r="D17" s="7">
         <v>4</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F17" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -3279,11 +3321,14 @@
       <c r="D18" s="7">
         <v>4</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -3300,7 +3345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3317,7 +3362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -3334,7 +3379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -3351,7 +3396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
@@ -3368,7 +3413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
@@ -3402,7 +3447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -3419,7 +3464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
@@ -3436,7 +3481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
@@ -3453,7 +3498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
@@ -3470,7 +3515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
@@ -3487,7 +3532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
@@ -3504,7 +3549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>

--- a/Coder Army Sheet (1).xlsx
+++ b/Coder Army Sheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Coder Army\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ECE8E0-3DF8-4C08-A297-F5506C480C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F5C80-E6B2-4CF6-B406-A9AE2E2699A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="753">
   <si>
     <t>Hard work Beats Talent When Talent Doesn't work Hard</t>
   </si>
@@ -2991,8 +2991,8 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G27" activeCellId="1" sqref="E22:F22 G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3341,8 +3341,11 @@
       <c r="D19" s="7">
         <v>4</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
+      <c r="E19" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F19" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3358,8 +3361,11 @@
       <c r="D20" s="7">
         <v>4</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
+      <c r="E20" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F20" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3375,8 +3381,11 @@
       <c r="D21" s="7">
         <v>5</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
+      <c r="E21" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F21" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3392,8 +3401,11 @@
       <c r="D22" s="7">
         <v>5</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
+      <c r="E22" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F22" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Coder Army Sheet (1).xlsx
+++ b/Coder Army Sheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Coder Army\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F5C80-E6B2-4CF6-B406-A9AE2E2699A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B027F4-3484-4AF4-A04E-CAD5CF42D2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="753">
   <si>
     <t>Hard work Beats Talent When Talent Doesn't work Hard</t>
   </si>
@@ -2992,7 +2992,7 @@
   <dimension ref="A1:F746"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" activeCellId="1" sqref="E22:F22 G27"/>
+      <selection activeCell="E27" activeCellId="1" sqref="E24:F24 E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3421,8 +3421,11 @@
       <c r="D23" s="7">
         <v>5</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
+      <c r="E23" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F23" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3438,8 +3441,11 @@
       <c r="D24" s="7">
         <v>5</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
+      <c r="E24" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F24" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Coder Army Sheet (1).xlsx
+++ b/Coder Army Sheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Coder Army\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B027F4-3484-4AF4-A04E-CAD5CF42D2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EFB873-4C5F-483A-8B6F-5281ACBDD51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2991,8 +2991,8 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" activeCellId="1" sqref="E24:F24 E27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3890,7 +3890,7 @@
       <c r="C51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="36">
         <v>15</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -3907,7 +3907,7 @@
       <c r="C52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="36">
         <v>15</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -3924,7 +3924,7 @@
       <c r="C53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="36">
         <v>15</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -3941,7 +3941,7 @@
       <c r="C54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="36">
         <v>15</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -3992,7 +3992,7 @@
       <c r="C57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="36">
         <v>16</v>
       </c>
       <c r="E57" s="7" t="s">
